--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Proyecto ISO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Tareas</t>
   </si>
   <si>
-    <t>Horas</t>
-  </si>
-  <si>
     <t>Crear modelo ER</t>
   </si>
   <si>
@@ -66,6 +63,24 @@
   </si>
   <si>
     <t>Descargar NetBeans</t>
+  </si>
+  <si>
+    <t>Pasar requisitos a excel</t>
+  </si>
+  <si>
+    <t>Horas reales</t>
+  </si>
+  <si>
+    <t>Horas Estimadas</t>
+  </si>
+  <si>
+    <t>Interfaz horario</t>
+  </si>
+  <si>
+    <t>Editar base de datos</t>
+  </si>
+  <si>
+    <t>Crear objeto sesion</t>
   </si>
 </sst>
 </file>
@@ -110,11 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,12 +461,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -458,7 +477,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -466,15 +485,15 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -482,7 +501,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -490,41 +509,82 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="B11">
+        <v>0.33</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.66</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.15</v>
+      </c>
+      <c r="C14">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Proyecto ISO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelnuneztorron/Desktop/TimeTableManager/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="3520" yWindow="460" windowWidth="28320" windowHeight="15380"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Tareas</t>
   </si>
@@ -66,12 +69,27 @@
   </si>
   <si>
     <t>Descargar NetBeans</t>
+  </si>
+  <si>
+    <t>Clara Adolfo</t>
+  </si>
+  <si>
+    <t>Clara Adolfo Rafael</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Ángel</t>
+  </si>
+  <si>
+    <t>Jose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,18 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,63 +466,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -514,16 +553,22 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelnuneztorron/Desktop/TimeTableManager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Desktop\Clase\Jose\TimeTableManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="460" windowWidth="28320" windowHeight="15380"/>
+    <workbookView xWindow="3525" yWindow="465" windowWidth="28320" windowHeight="15375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,15 +450,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,7 +478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -488,7 +489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -499,7 +500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -510,7 +511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -521,7 +522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -532,7 +533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -543,7 +544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -557,7 +558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -568,7 +569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Desktop\Clase\Jose\TimeTableManager\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="465" windowWidth="28320" windowHeight="15375"/>
+    <workbookView xWindow="3525" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Tareas</t>
   </si>
   <si>
-    <t>Horas</t>
-  </si>
-  <si>
     <t>Crear modelo ER</t>
   </si>
   <si>
@@ -62,9 +54,6 @@
     <t>Crear cuenta GitHub</t>
   </si>
   <si>
-    <t>0.0833</t>
-  </si>
-  <si>
     <t>&lt;--5 min</t>
   </si>
   <si>
@@ -74,9 +63,6 @@
     <t>Clara Adolfo</t>
   </si>
   <si>
-    <t>Clara Adolfo Rafael</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
@@ -84,12 +70,39 @@
   </si>
   <si>
     <t>Jose</t>
+  </si>
+  <si>
+    <t>Buscar la sintaxis de java para los test</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Hacer test</t>
+  </si>
+  <si>
+    <t>Pensar qué probar</t>
+  </si>
+  <si>
+    <t>Horas reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horas estimadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Adolfo Rafael </t>
+  </si>
+  <si>
+    <t>Modificar la hoja de tareas</t>
+  </si>
+  <si>
+    <t>Autor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,11 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -245,7 +259,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -439,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,16 +461,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -464,113 +480,172 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelnuneztorron/Desktop/TimeTableManager/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="465" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="3520" yWindow="460" windowWidth="20740" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Tareas</t>
   </si>
@@ -453,7 +458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,21 +466,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -503,7 +508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -517,7 +522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -531,7 +536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,7 +547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -553,7 +558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -564,7 +569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -575,7 +580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -589,7 +594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -600,7 +605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -611,7 +616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -622,7 +627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -633,7 +638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -645,6 +650,17 @@
       </c>
       <c r="D14" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelnuneztorron/Desktop/TimeTableManager/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="460" windowWidth="20740" windowHeight="11760"/>
+    <workbookView xWindow="3525" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -458,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,15 +464,15 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -536,7 +531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -547,7 +542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -612,16 +607,22 @@
       <c r="B11">
         <v>0.5</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B12">
         <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -634,6 +635,9 @@
       <c r="B13">
         <v>4</v>
       </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
@@ -652,7 +656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\TimeTableManager\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3525" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -11,18 +16,18 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Tareas</t>
   </si>
@@ -93,16 +98,40 @@
     <t xml:space="preserve">Clara Adolfo Rafael </t>
   </si>
   <si>
-    <t>Modificar la hoja de tareas</t>
-  </si>
-  <si>
     <t>Autor</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Modificar hoja de tareas</t>
+  </si>
+  <si>
+    <t>Programar incorporación de datos desde Excel</t>
+  </si>
+  <si>
+    <t>Adolfo</t>
+  </si>
+  <si>
+    <t>Recuperar Maquina virtual Linux</t>
+  </si>
+  <si>
+    <t>Comprobar que esta en blanco</t>
+  </si>
+  <si>
+    <t>Probar comandos para ejecutar el proyecto en linux</t>
+  </si>
+  <si>
+    <t>Pasar pasos a un documento de texto</t>
+  </si>
+  <si>
+    <t>Preparar carpeta con el proyecto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,12 +170,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,21 +491,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,10 +516,13 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -503,7 +536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -517,7 +550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -531,7 +564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,7 +575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -553,7 +586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -564,7 +597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -575,7 +608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -589,7 +622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -600,7 +633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -614,7 +647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -628,7 +661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -641,10 +674,13 @@
       <c r="D13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="5">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>0.5</v>
@@ -652,19 +688,144 @@
       <c r="C14">
         <v>0.5</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="5">
+        <v>42650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
       <c r="D15" t="s">
         <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="5">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5">
+        <v>42649</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\TimeTableManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portatil-pc\Desktop\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Tareas</t>
   </si>
@@ -126,12 +126,24 @@
   </si>
   <si>
     <t>Preparar carpeta con el proyecto</t>
+  </si>
+  <si>
+    <t>Mostrar datos sobre sesión</t>
+  </si>
+  <si>
+    <t>Importar excell para cargar configuración</t>
+  </si>
+  <si>
+    <t>Refactorización de codigo</t>
+  </si>
+  <si>
+    <t>Crear formato del excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,6 +840,91 @@
         <v>42649</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>3.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5">
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="5">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5">
+        <v>42648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portatil-pc\Desktop\Repo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3525" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Tareas</t>
   </si>
@@ -138,6 +133,9 @@
   </si>
   <si>
     <t>Crear formato del excel</t>
+  </si>
+  <si>
+    <t>Corregir test</t>
   </si>
 </sst>
 </file>
@@ -495,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,18 +501,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -925,6 +923,23 @@
         <v>42648</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5">
+        <v>42652</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\TimeTableManager\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3525" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Tareas</t>
   </si>
@@ -136,14 +141,34 @@
   </si>
   <si>
     <t>Corregir test</t>
+  </si>
+  <si>
+    <t>Averiguar como se ejecutan juntos los tests</t>
+  </si>
+  <si>
+    <t>Poner todos los tests en una suite para su ejecución</t>
+  </si>
+  <si>
+    <t>Crear nuevos tests</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -180,13 +205,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,18 +527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -940,6 +966,60 @@
         <v>42652</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5">
+        <v>42654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="5">
+        <v>42654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="5">
+        <v>42654</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Tareas</t>
   </si>
@@ -149,10 +149,7 @@
     <t>Poner todos los tests en una suite para su ejecución</t>
   </si>
   <si>
-    <t>Crear nuevos tests</t>
-  </si>
-  <si>
-    <t>??</t>
+    <t>Pasar Test pendiente de clase a verde</t>
   </si>
 </sst>
 </file>
@@ -273,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -325,7 +322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -530,7 +527,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,15 +1002,29 @@
         <v>40</v>
       </c>
       <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="5">
+        <v>42654</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="5">
         <v>42654</v>
       </c>
     </row>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\TimeTableManager\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Tareas</t>
   </si>
@@ -150,12 +145,21 @@
   </si>
   <si>
     <t>Pasar Test pendiente de clase a verde</t>
+  </si>
+  <si>
+    <t>Preguntar a Mariano</t>
+  </si>
+  <si>
+    <t>todos</t>
+  </si>
+  <si>
+    <t>Predicado en Prolog para comprobar si se solapan asignaturas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -322,7 +326,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -516,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,18 +528,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1028,8 +1032,39 @@
         <v>42654</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="5">
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="5">
+        <v>42656</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17301"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Desktop\TrabajoIngSoft\TimeTableManager\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3525" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Tareas</t>
   </si>
@@ -154,12 +159,18 @@
   </si>
   <si>
     <t>Predicado en Prolog para comprobar si se solapan asignaturas</t>
+  </si>
+  <si>
+    <t>Test contenedor funcional</t>
+  </si>
+  <si>
+    <t>Rafael</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,6 +1077,23 @@
         <v>42656</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0.7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="5">
+        <v>42656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17301"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Desktop\TrabajoIngSoft\TimeTableManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\TimeTableManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Tareas</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Rafael</t>
+  </si>
+  <si>
+    <t>Hacer test de profesor</t>
+  </si>
+  <si>
+    <t>Buscar como se construye la aplicación desde cmd</t>
   </si>
 </sst>
 </file>
@@ -285,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -337,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -539,18 +545,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1036,6 +1042,9 @@
       <c r="B32">
         <v>3</v>
       </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
       <c r="D32" t="s">
         <v>27</v>
       </c>
@@ -1091,6 +1100,37 @@
         <v>45</v>
       </c>
       <c r="E35" s="5">
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="5">
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="5">
         <v>42656</v>
       </c>
     </row>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\TimeTableManager\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Tareas</t>
   </si>
@@ -171,12 +166,18 @@
   </si>
   <si>
     <t>Buscar como se construye la aplicación desde cmd</t>
+  </si>
+  <si>
+    <t>Llevar predicado Prolog a Java</t>
+  </si>
+  <si>
+    <t>Horas de sesion configurable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -343,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -537,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,18 +546,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1134,6 +1135,40 @@
         <v>42656</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="5">
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="5">
+        <v>42656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\TimeTableManager\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3525" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Tareas</t>
   </si>
@@ -172,12 +177,18 @@
   </si>
   <si>
     <t>Horas de sesion configurable</t>
+  </si>
+  <si>
+    <t>Test  "profesor no puede cambiar nombre"</t>
+  </si>
+  <si>
+    <t>0,,5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,7 +549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,18 +557,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,6 +1180,23 @@
         <v>42656</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="5">
+        <v>42657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Repositorio\TimeTableManager\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Tareas</t>
   </si>
@@ -183,12 +178,36 @@
   </si>
   <si>
     <t>0,,5</t>
+  </si>
+  <si>
+    <t>Tutorías con Mariano</t>
+  </si>
+  <si>
+    <t>varios días</t>
+  </si>
+  <si>
+    <t>restriccion de que a un profesor no se le solapen horas</t>
+  </si>
+  <si>
+    <t>restriccion de max y min numero de horas por dia de un profesor</t>
+  </si>
+  <si>
+    <t>horas tabu de profesores</t>
+  </si>
+  <si>
+    <t>una asignatura en dos planes de estudio</t>
+  </si>
+  <si>
+    <t>un profesor no puede tener clase a la hora de comer</t>
+  </si>
+  <si>
+    <t>restriccion max y min numero de horas por semana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,7 +568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -557,18 +576,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,6 +1216,119 @@
         <v>42657</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="5">
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>0.5</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="5">
+        <v>42685</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="5">
+        <v>42685</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="5">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>Tareas</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>restriccion max y min numero de horas por semana</t>
+  </si>
+  <si>
+    <t>investigar sobre algoritmos de busqueda con un agente</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,6 +1332,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="5">
+        <v>42670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -571,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,7 +582,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,8 +1328,14 @@
       <c r="B47">
         <v>2</v>
       </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
       <c r="D47" t="s">
         <v>17</v>
+      </c>
+      <c r="E47" s="5">
+        <v>42700</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>Tareas</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>investigar sobre algoritmos de busqueda con un agente</t>
+  </si>
+  <si>
+    <t>Maximo numero de horas seguidas de clase profesor</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,6 +1358,20 @@
         <v>42670</v>
       </c>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="5">
+        <v>42701</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Tareas</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Maximo numero de horas seguidas de clase profesor</t>
+  </si>
+  <si>
+    <t>Max gaps por dia</t>
   </si>
 </sst>
 </file>
@@ -582,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,10 +1368,30 @@
       <c r="B49">
         <v>1</v>
       </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
       <c r="D49" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="5">
+        <v>42701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="5">
         <v>42701</v>
       </c>
     </row>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>Tareas</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Max gaps por semana</t>
+  </si>
+  <si>
+    <t>Horas entre sesiones</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,6 +1418,23 @@
         <v>42701</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="5">
+        <v>42702</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
